--- a/07_マニュアル/ローコード画面遷移フレームワーク_導入マニュアル_v1.xlsx
+++ b/07_マニュアル/ローコード画面遷移フレームワーク_導入マニュアル_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f521979d5b526f07/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f521979d5b526f07/デスクトップ/新しいフォルダー (4)/lowcode-fw-repo/07_マニュアル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{0DE5291D-F96A-478B-8085-7CB37C6210EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E676C74-3B4A-4CF2-8D6A-82C9B70886E6}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{0DE5291D-F96A-478B-8085-7CB37C6210EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25B86CAF-5B81-4E84-AE9B-6C2229A8DA33}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E1404AE7-2EDF-4D4C-9C24-9B546A7C1E5F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>■ローコード画面遷移フレームワーク_導入マニュアル</t>
     <rPh sb="6" eb="8">
@@ -818,12 +818,24 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>https://github.com/suzuki617/lowcode-fw-repo.git</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>04_製造\lowcodeframework</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>04_製造\testproject</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,6 +891,15 @@
       <color rgb="FF0070C0"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -980,12 +1001,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,6 +1070,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1070,11 +1097,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1096,13 +1124,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1716,13 +1744,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>112738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1771,13 +1799,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>30900</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>168060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>190920</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>171926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1826,13 +1854,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>181318</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1881,13 +1909,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2005,13 +2033,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2075,13 +2103,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>196154</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2130,13 +2158,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2184,13 +2212,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2254,13 +2282,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2324,13 +2352,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>83944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>83819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2668,7 +2696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E6BA4D-F168-443F-BD63-3162E5E40319}">
-  <dimension ref="A1:BI282"/>
+  <dimension ref="A1:BI283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2984,8 +3012,8 @@
       <c r="BI16" s="6"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
-        <v>5</v>
+      <c r="A17" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -3049,10 +3077,10 @@
       <c r="BI17" s="6"/>
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A18" s="5"/>
-      <c r="B18" s="10" t="s">
-        <v>6</v>
+      <c r="A18" s="5" t="s">
+        <v>5</v>
       </c>
+      <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -3061,9 +3089,7 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
@@ -3117,13 +3143,13 @@
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -3131,7 +3157,9 @@
       <c r="K19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -3188,13 +3216,19 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="K20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -3246,9 +3280,7 @@
       <c r="BI20" s="6"/>
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A21" s="5"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -3311,206 +3343,206 @@
       <c r="BI21" s="6"/>
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="8"/>
-      <c r="AO22" s="8"/>
-      <c r="AP22" s="8"/>
-      <c r="AQ22" s="8"/>
-      <c r="AR22" s="8"/>
-      <c r="AS22" s="8"/>
-      <c r="AT22" s="8"/>
-      <c r="AU22" s="8"/>
-      <c r="AV22" s="8"/>
-      <c r="AW22" s="8"/>
-      <c r="AX22" s="8"/>
-      <c r="AY22" s="8"/>
-      <c r="AZ22" s="8"/>
-      <c r="BA22" s="8"/>
-      <c r="BB22" s="8"/>
-      <c r="BC22" s="8"/>
-      <c r="BD22" s="8"/>
-      <c r="BE22" s="8"/>
-      <c r="BF22" s="8"/>
-      <c r="BG22" s="8"/>
-      <c r="BH22" s="8"/>
-      <c r="BI22" s="9"/>
-    </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="10"/>
+      <c r="BE22" s="10"/>
+      <c r="BF22" s="10"/>
+      <c r="BG22" s="10"/>
+      <c r="BH22" s="10"/>
+      <c r="BI22" s="6"/>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="8"/>
+      <c r="AS23" s="8"/>
+      <c r="AT23" s="8"/>
+      <c r="AU23" s="8"/>
+      <c r="AV23" s="8"/>
+      <c r="AW23" s="8"/>
+      <c r="AX23" s="8"/>
+      <c r="AY23" s="8"/>
+      <c r="AZ23" s="8"/>
+      <c r="BA23" s="8"/>
+      <c r="BB23" s="8"/>
+      <c r="BC23" s="8"/>
+      <c r="BD23" s="8"/>
+      <c r="BE23" s="8"/>
+      <c r="BF23" s="8"/>
+      <c r="BG23" s="8"/>
+      <c r="BH23" s="8"/>
+      <c r="BI23" s="9"/>
+    </row>
+    <row r="26" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
-      <c r="AS26" s="3"/>
-      <c r="AT26" s="3"/>
-      <c r="AU26" s="3"/>
-      <c r="AV26" s="3"/>
-      <c r="AW26" s="3"/>
-      <c r="AX26" s="3"/>
-      <c r="AY26" s="3"/>
-      <c r="AZ26" s="3"/>
-      <c r="BA26" s="3"/>
-      <c r="BB26" s="3"/>
-      <c r="BC26" s="3"/>
-      <c r="BD26" s="3"/>
-      <c r="BE26" s="3"/>
-      <c r="BF26" s="3"/>
-      <c r="BG26" s="3"/>
-      <c r="BH26" s="3"/>
-      <c r="BI26" s="4"/>
-    </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="4"/>
+    </row>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="10"/>
-      <c r="AL27" s="10"/>
-      <c r="AM27" s="10"/>
-      <c r="AN27" s="10"/>
-      <c r="AO27" s="10"/>
-      <c r="AP27" s="10"/>
-      <c r="AQ27" s="10"/>
-      <c r="AR27" s="10"/>
-      <c r="AS27" s="10"/>
-      <c r="AT27" s="10"/>
-      <c r="AU27" s="10"/>
-      <c r="AV27" s="10"/>
-      <c r="AW27" s="10"/>
-      <c r="AX27" s="10"/>
-      <c r="AY27" s="10"/>
-      <c r="AZ27" s="10"/>
-      <c r="BA27" s="10"/>
-      <c r="BB27" s="10"/>
-      <c r="BC27" s="10"/>
-      <c r="BD27" s="10"/>
-      <c r="BE27" s="10"/>
-      <c r="BF27" s="10"/>
-      <c r="BG27" s="10"/>
-      <c r="BH27" s="10"/>
-      <c r="BI27" s="6"/>
-    </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A28" s="5"/>
-      <c r="B28" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -3574,7 +3606,7 @@
     <row r="29" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="10" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -3638,7 +3670,9 @@
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
-      <c r="B30" s="10"/>
+      <c r="B30" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -3701,9 +3735,7 @@
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
-      <c r="B31" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -3766,10 +3798,10 @@
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10" t="s">
-        <v>21</v>
+      <c r="B32" s="12" t="s">
+        <v>20</v>
       </c>
+      <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -3833,7 +3865,7 @@
       <c r="A33" s="5"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -3897,7 +3929,9 @@
     <row r="34" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="C34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -3958,10 +3992,8 @@
       <c r="BI34" s="6"/>
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A35" s="14"/>
-      <c r="B35" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -4023,13 +4055,11 @@
       <c r="BI35" s="6"/>
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A36" s="5"/>
-      <c r="B36" s="10" t="s">
-        <v>24</v>
+      <c r="A36" s="14"/>
+      <c r="B36" s="12" t="s">
+        <v>23</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -4091,8 +4121,12 @@
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="B37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -4154,9 +4188,7 @@
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -4219,10 +4251,10 @@
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="10" t="s">
-        <v>29</v>
+      <c r="B39" s="12" t="s">
+        <v>28</v>
       </c>
+      <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -4286,7 +4318,7 @@
       <c r="A40" s="5"/>
       <c r="B40" s="12"/>
       <c r="C40" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -4350,7 +4382,9 @@
     <row r="41" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="10"/>
+      <c r="C41" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -4411,9 +4445,7 @@
       <c r="BI41" s="6"/>
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A42" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="A42" s="5"/>
       <c r="B42" s="12"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -4476,10 +4508,10 @@
       <c r="BI42" s="6"/>
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A43" s="5"/>
-      <c r="B43" s="15" t="s">
-        <v>41</v>
+      <c r="A43" s="13" t="s">
+        <v>36</v>
       </c>
+      <c r="B43" s="12"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -4543,7 +4575,7 @@
     <row r="44" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -4607,7 +4639,9 @@
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
-      <c r="B45" s="12"/>
+      <c r="B45" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -5174,7 +5208,7 @@
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
-      <c r="B54" s="10"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -5236,206 +5270,204 @@
       <c r="BI54" s="6"/>
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="8"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="8"/>
-      <c r="AD55" s="8"/>
-      <c r="AE55" s="8"/>
-      <c r="AF55" s="8"/>
-      <c r="AG55" s="8"/>
-      <c r="AH55" s="8"/>
-      <c r="AI55" s="8"/>
-      <c r="AJ55" s="8"/>
-      <c r="AK55" s="8"/>
-      <c r="AL55" s="8"/>
-      <c r="AM55" s="8"/>
-      <c r="AN55" s="8"/>
-      <c r="AO55" s="8"/>
-      <c r="AP55" s="8"/>
-      <c r="AQ55" s="8"/>
-      <c r="AR55" s="8"/>
-      <c r="AS55" s="8"/>
-      <c r="AT55" s="8"/>
-      <c r="AU55" s="8"/>
-      <c r="AV55" s="8"/>
-      <c r="AW55" s="8"/>
-      <c r="AX55" s="8"/>
-      <c r="AY55" s="8"/>
-      <c r="AZ55" s="8"/>
-      <c r="BA55" s="8"/>
-      <c r="BB55" s="8"/>
-      <c r="BC55" s="8"/>
-      <c r="BD55" s="8"/>
-      <c r="BE55" s="8"/>
-      <c r="BF55" s="8"/>
-      <c r="BG55" s="8"/>
-      <c r="BH55" s="8"/>
-      <c r="BI55" s="9"/>
-    </row>
-    <row r="58" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
+      <c r="A55" s="5"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="10"/>
+      <c r="AH55" s="10"/>
+      <c r="AI55" s="10"/>
+      <c r="AJ55" s="10"/>
+      <c r="AK55" s="10"/>
+      <c r="AL55" s="10"/>
+      <c r="AM55" s="10"/>
+      <c r="AN55" s="10"/>
+      <c r="AO55" s="10"/>
+      <c r="AP55" s="10"/>
+      <c r="AQ55" s="10"/>
+      <c r="AR55" s="10"/>
+      <c r="AS55" s="10"/>
+      <c r="AT55" s="10"/>
+      <c r="AU55" s="10"/>
+      <c r="AV55" s="10"/>
+      <c r="AW55" s="10"/>
+      <c r="AX55" s="10"/>
+      <c r="AY55" s="10"/>
+      <c r="AZ55" s="10"/>
+      <c r="BA55" s="10"/>
+      <c r="BB55" s="10"/>
+      <c r="BC55" s="10"/>
+      <c r="BD55" s="10"/>
+      <c r="BE55" s="10"/>
+      <c r="BF55" s="10"/>
+      <c r="BG55" s="10"/>
+      <c r="BH55" s="10"/>
+      <c r="BI55" s="6"/>
+    </row>
+    <row r="56" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="8"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8"/>
+      <c r="AL56" s="8"/>
+      <c r="AM56" s="8"/>
+      <c r="AN56" s="8"/>
+      <c r="AO56" s="8"/>
+      <c r="AP56" s="8"/>
+      <c r="AQ56" s="8"/>
+      <c r="AR56" s="8"/>
+      <c r="AS56" s="8"/>
+      <c r="AT56" s="8"/>
+      <c r="AU56" s="8"/>
+      <c r="AV56" s="8"/>
+      <c r="AW56" s="8"/>
+      <c r="AX56" s="8"/>
+      <c r="AY56" s="8"/>
+      <c r="AZ56" s="8"/>
+      <c r="BA56" s="8"/>
+      <c r="BB56" s="8"/>
+      <c r="BC56" s="8"/>
+      <c r="BD56" s="8"/>
+      <c r="BE56" s="8"/>
+      <c r="BF56" s="8"/>
+      <c r="BG56" s="8"/>
+      <c r="BH56" s="8"/>
+      <c r="BI56" s="9"/>
+    </row>
+    <row r="59" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A59" s="2"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-      <c r="AF59" s="3"/>
-      <c r="AG59" s="3"/>
-      <c r="AH59" s="3"/>
-      <c r="AI59" s="3"/>
-      <c r="AJ59" s="3"/>
-      <c r="AK59" s="3"/>
-      <c r="AL59" s="3"/>
-      <c r="AM59" s="3"/>
-      <c r="AN59" s="3"/>
-      <c r="AO59" s="3"/>
-      <c r="AP59" s="3"/>
-      <c r="AQ59" s="3"/>
-      <c r="AR59" s="3"/>
-      <c r="AS59" s="3"/>
-      <c r="AT59" s="3"/>
-      <c r="AU59" s="3"/>
-      <c r="AV59" s="3"/>
-      <c r="AW59" s="3"/>
-      <c r="AX59" s="3"/>
-      <c r="AY59" s="3"/>
-      <c r="AZ59" s="3"/>
-      <c r="BA59" s="3"/>
-      <c r="BB59" s="3"/>
-      <c r="BC59" s="3"/>
-      <c r="BD59" s="3"/>
-      <c r="BE59" s="3"/>
-      <c r="BF59" s="3"/>
-      <c r="BG59" s="3"/>
-      <c r="BH59" s="3"/>
-      <c r="BI59" s="4"/>
-    </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="3"/>
+      <c r="AG60" s="3"/>
+      <c r="AH60" s="3"/>
+      <c r="AI60" s="3"/>
+      <c r="AJ60" s="3"/>
+      <c r="AK60" s="3"/>
+      <c r="AL60" s="3"/>
+      <c r="AM60" s="3"/>
+      <c r="AN60" s="3"/>
+      <c r="AO60" s="3"/>
+      <c r="AP60" s="3"/>
+      <c r="AQ60" s="3"/>
+      <c r="AR60" s="3"/>
+      <c r="AS60" s="3"/>
+      <c r="AT60" s="3"/>
+      <c r="AU60" s="3"/>
+      <c r="AV60" s="3"/>
+      <c r="AW60" s="3"/>
+      <c r="AX60" s="3"/>
+      <c r="AY60" s="3"/>
+      <c r="AZ60" s="3"/>
+      <c r="BA60" s="3"/>
+      <c r="BB60" s="3"/>
+      <c r="BC60" s="3"/>
+      <c r="BD60" s="3"/>
+      <c r="BE60" s="3"/>
+      <c r="BF60" s="3"/>
+      <c r="BG60" s="3"/>
+      <c r="BH60" s="3"/>
+      <c r="BI60" s="4"/>
+    </row>
+    <row r="61" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A61" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
-      <c r="Z60" s="10"/>
-      <c r="AA60" s="10"/>
-      <c r="AB60" s="10"/>
-      <c r="AC60" s="10"/>
-      <c r="AD60" s="10"/>
-      <c r="AE60" s="10"/>
-      <c r="AF60" s="10"/>
-      <c r="AG60" s="10"/>
-      <c r="AH60" s="10"/>
-      <c r="AI60" s="10"/>
-      <c r="AJ60" s="10"/>
-      <c r="AK60" s="10"/>
-      <c r="AL60" s="10"/>
-      <c r="AM60" s="10"/>
-      <c r="AN60" s="10"/>
-      <c r="AO60" s="10"/>
-      <c r="AP60" s="10"/>
-      <c r="AQ60" s="10"/>
-      <c r="AR60" s="10"/>
-      <c r="AS60" s="10"/>
-      <c r="AT60" s="10"/>
-      <c r="AU60" s="10"/>
-      <c r="AV60" s="10"/>
-      <c r="AW60" s="10"/>
-      <c r="AX60" s="10"/>
-      <c r="AY60" s="10"/>
-      <c r="AZ60" s="10"/>
-      <c r="BA60" s="10"/>
-      <c r="BB60" s="10"/>
-      <c r="BC60" s="10"/>
-      <c r="BD60" s="10"/>
-      <c r="BE60" s="10"/>
-      <c r="BF60" s="10"/>
-      <c r="BG60" s="10"/>
-      <c r="BH60" s="10"/>
-      <c r="BI60" s="6"/>
-    </row>
-    <row r="61" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A61" s="5"/>
-      <c r="B61" t="s">
-        <v>32</v>
-      </c>
+      <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
@@ -5498,9 +5530,10 @@
     </row>
     <row r="62" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
-      <c r="C62" s="10" t="s">
-        <v>33</v>
+      <c r="B62" t="s">
+        <v>32</v>
       </c>
+      <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -5562,8 +5595,9 @@
     </row>
     <row r="63" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
+      <c r="C63" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
@@ -5625,7 +5659,7 @@
     </row>
     <row r="64" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
-      <c r="B64" s="12"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
@@ -5688,7 +5722,7 @@
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A65" s="5"/>
-      <c r="B65" s="10"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
@@ -5876,8 +5910,8 @@
       <c r="BI67" s="6"/>
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A68" s="14"/>
-      <c r="B68" s="12"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
@@ -5939,8 +5973,8 @@
       <c r="BI68" s="6"/>
     </row>
     <row r="69" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A69" s="5"/>
-      <c r="B69" s="10"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="12"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -8334,9 +8368,7 @@
     </row>
     <row r="107" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A107" s="5"/>
-      <c r="B107" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
@@ -8399,7 +8431,9 @@
     </row>
     <row r="108" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A108" s="5"/>
-      <c r="B108" s="10"/>
+      <c r="B108" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
@@ -8460,11 +8494,9 @@
       <c r="BH108" s="10"/>
       <c r="BI108" s="6"/>
     </row>
-    <row r="109" spans="1:61" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A109" s="5"/>
-      <c r="B109" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
@@ -8527,7 +8559,9 @@
     </row>
     <row r="110" spans="1:61" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="5"/>
-      <c r="B110" s="12"/>
+      <c r="B110" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="10"/>
@@ -8588,210 +8622,206 @@
       <c r="BH110" s="10"/>
       <c r="BI110" s="6"/>
     </row>
-    <row r="111" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A111" s="7"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
-      <c r="Q111" s="8"/>
-      <c r="R111" s="8"/>
-      <c r="S111" s="8"/>
-      <c r="T111" s="8"/>
-      <c r="U111" s="8"/>
-      <c r="V111" s="8"/>
-      <c r="W111" s="8"/>
-      <c r="X111" s="8"/>
-      <c r="Y111" s="8"/>
-      <c r="Z111" s="8"/>
-      <c r="AA111" s="8"/>
-      <c r="AB111" s="8"/>
-      <c r="AC111" s="8"/>
-      <c r="AD111" s="8"/>
-      <c r="AE111" s="8"/>
-      <c r="AF111" s="8"/>
-      <c r="AG111" s="8"/>
-      <c r="AH111" s="8"/>
-      <c r="AI111" s="8"/>
-      <c r="AJ111" s="8"/>
-      <c r="AK111" s="8"/>
-      <c r="AL111" s="8"/>
-      <c r="AM111" s="8"/>
-      <c r="AN111" s="8"/>
-      <c r="AO111" s="8"/>
-      <c r="AP111" s="8"/>
-      <c r="AQ111" s="8"/>
-      <c r="AR111" s="8"/>
-      <c r="AS111" s="8"/>
-      <c r="AT111" s="8"/>
-      <c r="AU111" s="8"/>
-      <c r="AV111" s="8"/>
-      <c r="AW111" s="8"/>
-      <c r="AX111" s="8"/>
-      <c r="AY111" s="8"/>
-      <c r="AZ111" s="8"/>
-      <c r="BA111" s="8"/>
-      <c r="BB111" s="8"/>
-      <c r="BC111" s="8"/>
-      <c r="BD111" s="8"/>
-      <c r="BE111" s="8"/>
-      <c r="BF111" s="8"/>
-      <c r="BG111" s="8"/>
-      <c r="BH111" s="8"/>
-      <c r="BI111" s="9"/>
-    </row>
-    <row r="114" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A114" s="1" t="s">
+    <row r="111" spans="1:61" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="5"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
+      <c r="P111" s="10"/>
+      <c r="Q111" s="10"/>
+      <c r="R111" s="10"/>
+      <c r="S111" s="10"/>
+      <c r="T111" s="10"/>
+      <c r="U111" s="10"/>
+      <c r="V111" s="10"/>
+      <c r="W111" s="10"/>
+      <c r="X111" s="10"/>
+      <c r="Y111" s="10"/>
+      <c r="Z111" s="10"/>
+      <c r="AA111" s="10"/>
+      <c r="AB111" s="10"/>
+      <c r="AC111" s="10"/>
+      <c r="AD111" s="10"/>
+      <c r="AE111" s="10"/>
+      <c r="AF111" s="10"/>
+      <c r="AG111" s="10"/>
+      <c r="AH111" s="10"/>
+      <c r="AI111" s="10"/>
+      <c r="AJ111" s="10"/>
+      <c r="AK111" s="10"/>
+      <c r="AL111" s="10"/>
+      <c r="AM111" s="10"/>
+      <c r="AN111" s="10"/>
+      <c r="AO111" s="10"/>
+      <c r="AP111" s="10"/>
+      <c r="AQ111" s="10"/>
+      <c r="AR111" s="10"/>
+      <c r="AS111" s="10"/>
+      <c r="AT111" s="10"/>
+      <c r="AU111" s="10"/>
+      <c r="AV111" s="10"/>
+      <c r="AW111" s="10"/>
+      <c r="AX111" s="10"/>
+      <c r="AY111" s="10"/>
+      <c r="AZ111" s="10"/>
+      <c r="BA111" s="10"/>
+      <c r="BB111" s="10"/>
+      <c r="BC111" s="10"/>
+      <c r="BD111" s="10"/>
+      <c r="BE111" s="10"/>
+      <c r="BF111" s="10"/>
+      <c r="BG111" s="10"/>
+      <c r="BH111" s="10"/>
+      <c r="BI111" s="6"/>
+    </row>
+    <row r="112" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A112" s="7"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+      <c r="Q112" s="8"/>
+      <c r="R112" s="8"/>
+      <c r="S112" s="8"/>
+      <c r="T112" s="8"/>
+      <c r="U112" s="8"/>
+      <c r="V112" s="8"/>
+      <c r="W112" s="8"/>
+      <c r="X112" s="8"/>
+      <c r="Y112" s="8"/>
+      <c r="Z112" s="8"/>
+      <c r="AA112" s="8"/>
+      <c r="AB112" s="8"/>
+      <c r="AC112" s="8"/>
+      <c r="AD112" s="8"/>
+      <c r="AE112" s="8"/>
+      <c r="AF112" s="8"/>
+      <c r="AG112" s="8"/>
+      <c r="AH112" s="8"/>
+      <c r="AI112" s="8"/>
+      <c r="AJ112" s="8"/>
+      <c r="AK112" s="8"/>
+      <c r="AL112" s="8"/>
+      <c r="AM112" s="8"/>
+      <c r="AN112" s="8"/>
+      <c r="AO112" s="8"/>
+      <c r="AP112" s="8"/>
+      <c r="AQ112" s="8"/>
+      <c r="AR112" s="8"/>
+      <c r="AS112" s="8"/>
+      <c r="AT112" s="8"/>
+      <c r="AU112" s="8"/>
+      <c r="AV112" s="8"/>
+      <c r="AW112" s="8"/>
+      <c r="AX112" s="8"/>
+      <c r="AY112" s="8"/>
+      <c r="AZ112" s="8"/>
+      <c r="BA112" s="8"/>
+      <c r="BB112" s="8"/>
+      <c r="BC112" s="8"/>
+      <c r="BD112" s="8"/>
+      <c r="BE112" s="8"/>
+      <c r="BF112" s="8"/>
+      <c r="BG112" s="8"/>
+      <c r="BH112" s="8"/>
+      <c r="BI112" s="9"/>
+    </row>
+    <row r="115" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A115" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A115" s="2"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
-      <c r="O115" s="3"/>
-      <c r="P115" s="3"/>
-      <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
-      <c r="S115" s="3"/>
-      <c r="T115" s="3"/>
-      <c r="U115" s="3"/>
-      <c r="V115" s="3"/>
-      <c r="W115" s="3"/>
-      <c r="X115" s="3"/>
-      <c r="Y115" s="3"/>
-      <c r="Z115" s="3"/>
-      <c r="AA115" s="3"/>
-      <c r="AB115" s="3"/>
-      <c r="AC115" s="3"/>
-      <c r="AD115" s="3"/>
-      <c r="AE115" s="3"/>
-      <c r="AF115" s="3"/>
-      <c r="AG115" s="3"/>
-      <c r="AH115" s="3"/>
-      <c r="AI115" s="3"/>
-      <c r="AJ115" s="3"/>
-      <c r="AK115" s="3"/>
-      <c r="AL115" s="3"/>
-      <c r="AM115" s="3"/>
-      <c r="AN115" s="3"/>
-      <c r="AO115" s="3"/>
-      <c r="AP115" s="3"/>
-      <c r="AQ115" s="3"/>
-      <c r="AR115" s="3"/>
-      <c r="AS115" s="3"/>
-      <c r="AT115" s="3"/>
-      <c r="AU115" s="3"/>
-      <c r="AV115" s="3"/>
-      <c r="AW115" s="3"/>
-      <c r="AX115" s="3"/>
-      <c r="AY115" s="3"/>
-      <c r="AZ115" s="3"/>
-      <c r="BA115" s="3"/>
-      <c r="BB115" s="3"/>
-      <c r="BC115" s="3"/>
-      <c r="BD115" s="3"/>
-      <c r="BE115" s="3"/>
-      <c r="BF115" s="3"/>
-      <c r="BG115" s="3"/>
-      <c r="BH115" s="3"/>
-      <c r="BI115" s="4"/>
-    </row>
     <row r="116" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="2"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="3"/>
+      <c r="AA116" s="3"/>
+      <c r="AB116" s="3"/>
+      <c r="AC116" s="3"/>
+      <c r="AD116" s="3"/>
+      <c r="AE116" s="3"/>
+      <c r="AF116" s="3"/>
+      <c r="AG116" s="3"/>
+      <c r="AH116" s="3"/>
+      <c r="AI116" s="3"/>
+      <c r="AJ116" s="3"/>
+      <c r="AK116" s="3"/>
+      <c r="AL116" s="3"/>
+      <c r="AM116" s="3"/>
+      <c r="AN116" s="3"/>
+      <c r="AO116" s="3"/>
+      <c r="AP116" s="3"/>
+      <c r="AQ116" s="3"/>
+      <c r="AR116" s="3"/>
+      <c r="AS116" s="3"/>
+      <c r="AT116" s="3"/>
+      <c r="AU116" s="3"/>
+      <c r="AV116" s="3"/>
+      <c r="AW116" s="3"/>
+      <c r="AX116" s="3"/>
+      <c r="AY116" s="3"/>
+      <c r="AZ116" s="3"/>
+      <c r="BA116" s="3"/>
+      <c r="BB116" s="3"/>
+      <c r="BC116" s="3"/>
+      <c r="BD116" s="3"/>
+      <c r="BE116" s="3"/>
+      <c r="BF116" s="3"/>
+      <c r="BG116" s="3"/>
+      <c r="BH116" s="3"/>
+      <c r="BI116" s="4"/>
+    </row>
+    <row r="117" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B117" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
-      <c r="L116" s="10"/>
-      <c r="M116" s="10"/>
-      <c r="N116" s="10"/>
-      <c r="O116" s="10"/>
-      <c r="P116" s="10"/>
-      <c r="Q116" s="10"/>
-      <c r="R116" s="10"/>
-      <c r="S116" s="10"/>
-      <c r="T116" s="10"/>
-      <c r="U116" s="10"/>
-      <c r="V116" s="10"/>
-      <c r="W116" s="10"/>
-      <c r="X116" s="10"/>
-      <c r="Y116" s="10"/>
-      <c r="Z116" s="10"/>
-      <c r="AA116" s="10"/>
-      <c r="AB116" s="10"/>
-      <c r="AC116" s="10"/>
-      <c r="AD116" s="10"/>
-      <c r="AE116" s="10"/>
-      <c r="AF116" s="10"/>
-      <c r="AG116" s="10"/>
-      <c r="AH116" s="10"/>
-      <c r="AI116" s="10"/>
-      <c r="AJ116" s="10"/>
-      <c r="AK116" s="10"/>
-      <c r="AL116" s="10"/>
-      <c r="AM116" s="10"/>
-      <c r="AN116" s="10"/>
-      <c r="AO116" s="10"/>
-      <c r="AP116" s="10"/>
-      <c r="AQ116" s="10"/>
-      <c r="AR116" s="10"/>
-      <c r="AS116" s="10"/>
-      <c r="AT116" s="10"/>
-      <c r="AU116" s="10"/>
-      <c r="AV116" s="10"/>
-      <c r="AW116" s="10"/>
-      <c r="AX116" s="10"/>
-      <c r="AY116" s="10"/>
-      <c r="AZ116" s="10"/>
-      <c r="BA116" s="10"/>
-      <c r="BB116" s="10"/>
-      <c r="BC116" s="10"/>
-      <c r="BD116" s="10"/>
-      <c r="BE116" s="10"/>
-      <c r="BF116" s="10"/>
-      <c r="BG116" s="10"/>
-      <c r="BH116" s="10"/>
-      <c r="BI116" s="6"/>
-    </row>
-    <row r="117" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A117" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
@@ -8855,10 +8885,10 @@
     </row>
     <row r="118" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A118" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
@@ -8921,10 +8951,13 @@
       <c r="BI118" s="6"/>
     </row>
     <row r="119" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A119" s="5"/>
-      <c r="C119" s="11" t="s">
-        <v>17</v>
+      <c r="A119" s="5" t="s">
+        <v>15</v>
       </c>
+      <c r="B119" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
@@ -8985,203 +9018,205 @@
       <c r="BI119" s="6"/>
     </row>
     <row r="120" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A120" s="7"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
-      <c r="M120" s="8"/>
-      <c r="N120" s="8"/>
-      <c r="O120" s="8"/>
-      <c r="P120" s="8"/>
-      <c r="Q120" s="8"/>
-      <c r="R120" s="8"/>
-      <c r="S120" s="8"/>
-      <c r="T120" s="8"/>
-      <c r="U120" s="8"/>
-      <c r="V120" s="8"/>
-      <c r="W120" s="8"/>
-      <c r="X120" s="8"/>
-      <c r="Y120" s="8"/>
-      <c r="Z120" s="8"/>
-      <c r="AA120" s="8"/>
-      <c r="AB120" s="8"/>
-      <c r="AC120" s="8"/>
-      <c r="AD120" s="8"/>
-      <c r="AE120" s="8"/>
-      <c r="AF120" s="8"/>
-      <c r="AG120" s="8"/>
-      <c r="AH120" s="8"/>
-      <c r="AI120" s="8"/>
-      <c r="AJ120" s="8"/>
-      <c r="AK120" s="8"/>
-      <c r="AL120" s="8"/>
-      <c r="AM120" s="8"/>
-      <c r="AN120" s="8"/>
-      <c r="AO120" s="8"/>
-      <c r="AP120" s="8"/>
-      <c r="AQ120" s="8"/>
-      <c r="AR120" s="8"/>
-      <c r="AS120" s="8"/>
-      <c r="AT120" s="8"/>
-      <c r="AU120" s="8"/>
-      <c r="AV120" s="8"/>
-      <c r="AW120" s="8"/>
-      <c r="AX120" s="8"/>
-      <c r="AY120" s="8"/>
-      <c r="AZ120" s="8"/>
-      <c r="BA120" s="8"/>
-      <c r="BB120" s="8"/>
-      <c r="BC120" s="8"/>
-      <c r="BD120" s="8"/>
-      <c r="BE120" s="8"/>
-      <c r="BF120" s="8"/>
-      <c r="BG120" s="8"/>
-      <c r="BH120" s="8"/>
-      <c r="BI120" s="9"/>
-    </row>
-    <row r="123" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A123" s="1" t="s">
+      <c r="A120" s="5"/>
+      <c r="C120" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10"/>
+      <c r="O120" s="10"/>
+      <c r="P120" s="10"/>
+      <c r="Q120" s="10"/>
+      <c r="R120" s="10"/>
+      <c r="S120" s="10"/>
+      <c r="T120" s="10"/>
+      <c r="U120" s="10"/>
+      <c r="V120" s="10"/>
+      <c r="W120" s="10"/>
+      <c r="X120" s="10"/>
+      <c r="Y120" s="10"/>
+      <c r="Z120" s="10"/>
+      <c r="AA120" s="10"/>
+      <c r="AB120" s="10"/>
+      <c r="AC120" s="10"/>
+      <c r="AD120" s="10"/>
+      <c r="AE120" s="10"/>
+      <c r="AF120" s="10"/>
+      <c r="AG120" s="10"/>
+      <c r="AH120" s="10"/>
+      <c r="AI120" s="10"/>
+      <c r="AJ120" s="10"/>
+      <c r="AK120" s="10"/>
+      <c r="AL120" s="10"/>
+      <c r="AM120" s="10"/>
+      <c r="AN120" s="10"/>
+      <c r="AO120" s="10"/>
+      <c r="AP120" s="10"/>
+      <c r="AQ120" s="10"/>
+      <c r="AR120" s="10"/>
+      <c r="AS120" s="10"/>
+      <c r="AT120" s="10"/>
+      <c r="AU120" s="10"/>
+      <c r="AV120" s="10"/>
+      <c r="AW120" s="10"/>
+      <c r="AX120" s="10"/>
+      <c r="AY120" s="10"/>
+      <c r="AZ120" s="10"/>
+      <c r="BA120" s="10"/>
+      <c r="BB120" s="10"/>
+      <c r="BC120" s="10"/>
+      <c r="BD120" s="10"/>
+      <c r="BE120" s="10"/>
+      <c r="BF120" s="10"/>
+      <c r="BG120" s="10"/>
+      <c r="BH120" s="10"/>
+      <c r="BI120" s="6"/>
+    </row>
+    <row r="121" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A121" s="7"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="8"/>
+      <c r="P121" s="8"/>
+      <c r="Q121" s="8"/>
+      <c r="R121" s="8"/>
+      <c r="S121" s="8"/>
+      <c r="T121" s="8"/>
+      <c r="U121" s="8"/>
+      <c r="V121" s="8"/>
+      <c r="W121" s="8"/>
+      <c r="X121" s="8"/>
+      <c r="Y121" s="8"/>
+      <c r="Z121" s="8"/>
+      <c r="AA121" s="8"/>
+      <c r="AB121" s="8"/>
+      <c r="AC121" s="8"/>
+      <c r="AD121" s="8"/>
+      <c r="AE121" s="8"/>
+      <c r="AF121" s="8"/>
+      <c r="AG121" s="8"/>
+      <c r="AH121" s="8"/>
+      <c r="AI121" s="8"/>
+      <c r="AJ121" s="8"/>
+      <c r="AK121" s="8"/>
+      <c r="AL121" s="8"/>
+      <c r="AM121" s="8"/>
+      <c r="AN121" s="8"/>
+      <c r="AO121" s="8"/>
+      <c r="AP121" s="8"/>
+      <c r="AQ121" s="8"/>
+      <c r="AR121" s="8"/>
+      <c r="AS121" s="8"/>
+      <c r="AT121" s="8"/>
+      <c r="AU121" s="8"/>
+      <c r="AV121" s="8"/>
+      <c r="AW121" s="8"/>
+      <c r="AX121" s="8"/>
+      <c r="AY121" s="8"/>
+      <c r="AZ121" s="8"/>
+      <c r="BA121" s="8"/>
+      <c r="BB121" s="8"/>
+      <c r="BC121" s="8"/>
+      <c r="BD121" s="8"/>
+      <c r="BE121" s="8"/>
+      <c r="BF121" s="8"/>
+      <c r="BG121" s="8"/>
+      <c r="BH121" s="8"/>
+      <c r="BI121" s="9"/>
+    </row>
+    <row r="124" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A124" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="124" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A124" s="2"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
-      <c r="M124" s="3"/>
-      <c r="N124" s="3"/>
-      <c r="O124" s="3"/>
-      <c r="P124" s="3"/>
-      <c r="Q124" s="3"/>
-      <c r="R124" s="3"/>
-      <c r="S124" s="3"/>
-      <c r="T124" s="3"/>
-      <c r="U124" s="3"/>
-      <c r="V124" s="3"/>
-      <c r="W124" s="3"/>
-      <c r="X124" s="3"/>
-      <c r="Y124" s="3"/>
-      <c r="Z124" s="3"/>
-      <c r="AA124" s="3"/>
-      <c r="AB124" s="3"/>
-      <c r="AC124" s="3"/>
-      <c r="AD124" s="3"/>
-      <c r="AE124" s="3"/>
-      <c r="AF124" s="3"/>
-      <c r="AG124" s="3"/>
-      <c r="AH124" s="3"/>
-      <c r="AI124" s="3"/>
-      <c r="AJ124" s="3"/>
-      <c r="AK124" s="3"/>
-      <c r="AL124" s="3"/>
-      <c r="AM124" s="3"/>
-      <c r="AN124" s="3"/>
-      <c r="AO124" s="3"/>
-      <c r="AP124" s="3"/>
-      <c r="AQ124" s="3"/>
-      <c r="AR124" s="3"/>
-      <c r="AS124" s="3"/>
-      <c r="AT124" s="3"/>
-      <c r="AU124" s="3"/>
-      <c r="AV124" s="3"/>
-      <c r="AW124" s="3"/>
-      <c r="AX124" s="3"/>
-      <c r="AY124" s="3"/>
-      <c r="AZ124" s="3"/>
-      <c r="BA124" s="3"/>
-      <c r="BB124" s="3"/>
-      <c r="BC124" s="3"/>
-      <c r="BD124" s="3"/>
-      <c r="BE124" s="3"/>
-      <c r="BF124" s="3"/>
-      <c r="BG124" s="3"/>
-      <c r="BH124" s="3"/>
-      <c r="BI124" s="4"/>
-    </row>
     <row r="125" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="2"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+      <c r="U125" s="3"/>
+      <c r="V125" s="3"/>
+      <c r="W125" s="3"/>
+      <c r="X125" s="3"/>
+      <c r="Y125" s="3"/>
+      <c r="Z125" s="3"/>
+      <c r="AA125" s="3"/>
+      <c r="AB125" s="3"/>
+      <c r="AC125" s="3"/>
+      <c r="AD125" s="3"/>
+      <c r="AE125" s="3"/>
+      <c r="AF125" s="3"/>
+      <c r="AG125" s="3"/>
+      <c r="AH125" s="3"/>
+      <c r="AI125" s="3"/>
+      <c r="AJ125" s="3"/>
+      <c r="AK125" s="3"/>
+      <c r="AL125" s="3"/>
+      <c r="AM125" s="3"/>
+      <c r="AN125" s="3"/>
+      <c r="AO125" s="3"/>
+      <c r="AP125" s="3"/>
+      <c r="AQ125" s="3"/>
+      <c r="AR125" s="3"/>
+      <c r="AS125" s="3"/>
+      <c r="AT125" s="3"/>
+      <c r="AU125" s="3"/>
+      <c r="AV125" s="3"/>
+      <c r="AW125" s="3"/>
+      <c r="AX125" s="3"/>
+      <c r="AY125" s="3"/>
+      <c r="AZ125" s="3"/>
+      <c r="BA125" s="3"/>
+      <c r="BB125" s="3"/>
+      <c r="BC125" s="3"/>
+      <c r="BD125" s="3"/>
+      <c r="BE125" s="3"/>
+      <c r="BF125" s="3"/>
+      <c r="BG125" s="3"/>
+      <c r="BH125" s="3"/>
+      <c r="BI125" s="4"/>
+    </row>
+    <row r="126" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A126" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="10"/>
-      <c r="K125" s="10"/>
-      <c r="L125" s="10"/>
-      <c r="M125" s="10"/>
-      <c r="N125" s="10"/>
-      <c r="O125" s="10"/>
-      <c r="P125" s="10"/>
-      <c r="Q125" s="10"/>
-      <c r="R125" s="10"/>
-      <c r="S125" s="10"/>
-      <c r="T125" s="10"/>
-      <c r="U125" s="10"/>
-      <c r="V125" s="10"/>
-      <c r="W125" s="10"/>
-      <c r="X125" s="10"/>
-      <c r="Y125" s="10"/>
-      <c r="Z125" s="10"/>
-      <c r="AA125" s="10"/>
-      <c r="AB125" s="10"/>
-      <c r="AC125" s="10"/>
-      <c r="AD125" s="10"/>
-      <c r="AE125" s="10"/>
-      <c r="AF125" s="10"/>
-      <c r="AG125" s="10"/>
-      <c r="AH125" s="10"/>
-      <c r="AI125" s="10"/>
-      <c r="AJ125" s="10"/>
-      <c r="AK125" s="10"/>
-      <c r="AL125" s="10"/>
-      <c r="AM125" s="10"/>
-      <c r="AN125" s="10"/>
-      <c r="AO125" s="10"/>
-      <c r="AP125" s="10"/>
-      <c r="AQ125" s="10"/>
-      <c r="AR125" s="10"/>
-      <c r="AS125" s="10"/>
-      <c r="AT125" s="10"/>
-      <c r="AU125" s="10"/>
-      <c r="AV125" s="10"/>
-      <c r="AW125" s="10"/>
-      <c r="AX125" s="10"/>
-      <c r="AY125" s="10"/>
-      <c r="AZ125" s="10"/>
-      <c r="BA125" s="10"/>
-      <c r="BB125" s="10"/>
-      <c r="BC125" s="10"/>
-      <c r="BD125" s="10"/>
-      <c r="BE125" s="10"/>
-      <c r="BF125" s="10"/>
-      <c r="BG125" s="10"/>
-      <c r="BH125" s="10"/>
-      <c r="BI125" s="6"/>
-    </row>
-    <row r="126" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A126" s="5"/>
+      <c r="B126" s="10"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
       <c r="E126" s="10"/>
@@ -9244,7 +9279,6 @@
     </row>
     <row r="127" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A127" s="5"/>
-      <c r="B127" s="10"/>
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
       <c r="E127" s="10"/>
@@ -10314,9 +10348,7 @@
       <c r="BI143" s="6"/>
     </row>
     <row r="144" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A144" s="13" t="s">
-        <v>48</v>
-      </c>
+      <c r="A144" s="5"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
@@ -10379,13 +10411,11 @@
       <c r="BI144" s="6"/>
     </row>
     <row r="145" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A145" s="5"/>
-      <c r="B145" s="10" t="s">
-        <v>37</v>
+      <c r="A145" s="13" t="s">
+        <v>48</v>
       </c>
-      <c r="C145" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
       <c r="D145" s="10"/>
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
@@ -10447,8 +10477,12 @@
     </row>
     <row r="146" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A146" s="5"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
+      <c r="B146" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="D146" s="10"/>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
@@ -11455,12 +11489,8 @@
     </row>
     <row r="162" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A162" s="5"/>
-      <c r="B162" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
       <c r="D162" s="10"/>
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
@@ -11522,8 +11552,12 @@
     </row>
     <row r="163" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A163" s="5"/>
-      <c r="B163" s="10"/>
-      <c r="C163" s="10"/>
+      <c r="B163" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
@@ -12655,9 +12689,7 @@
       <c r="BI180" s="6"/>
     </row>
     <row r="181" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A181" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="A181" s="5"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
@@ -12720,13 +12752,11 @@
       <c r="BI181" s="6"/>
     </row>
     <row r="182" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A182" s="5"/>
-      <c r="B182" s="10" t="s">
-        <v>37</v>
+      <c r="A182" s="13" t="s">
+        <v>49</v>
       </c>
-      <c r="C182" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
       <c r="D182" s="10"/>
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
@@ -12788,8 +12818,12 @@
     </row>
     <row r="183" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A183" s="5"/>
-      <c r="B183" s="10"/>
-      <c r="C183" s="10"/>
+      <c r="B183" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="D183" s="10"/>
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
@@ -14111,12 +14145,8 @@
     </row>
     <row r="204" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A204" s="5"/>
-      <c r="B204" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C204" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="B204" s="10"/>
+      <c r="C204" s="10"/>
       <c r="D204" s="10"/>
       <c r="E204" s="10"/>
       <c r="F204" s="10"/>
@@ -14178,8 +14208,12 @@
     </row>
     <row r="205" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A205" s="5"/>
-      <c r="B205" s="10"/>
-      <c r="C205" s="10"/>
+      <c r="B205" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="D205" s="10"/>
       <c r="E205" s="10"/>
       <c r="F205" s="10"/>
@@ -15186,9 +15220,7 @@
     </row>
     <row r="221" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A221" s="5"/>
-      <c r="B221" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="B221" s="10"/>
       <c r="C221" s="10"/>
       <c r="D221" s="10"/>
       <c r="E221" s="10"/>
@@ -15251,7 +15283,9 @@
     </row>
     <row r="222" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A222" s="5"/>
-      <c r="B222" s="10"/>
+      <c r="B222" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C222" s="10"/>
       <c r="D222" s="10"/>
       <c r="E222" s="10"/>
@@ -15376,9 +15410,7 @@
       <c r="BI223" s="6"/>
     </row>
     <row r="224" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A224" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="A224" s="5"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
@@ -15441,13 +15473,11 @@
       <c r="BI224" s="6"/>
     </row>
     <row r="225" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A225" s="5"/>
-      <c r="B225" s="10" t="s">
-        <v>37</v>
+      <c r="A225" s="13" t="s">
+        <v>55</v>
       </c>
-      <c r="C225" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="B225" s="10"/>
+      <c r="C225" s="10"/>
       <c r="D225" s="10"/>
       <c r="E225" s="10"/>
       <c r="F225" s="10"/>
@@ -15509,7 +15539,12 @@
     </row>
     <row r="226" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A226" s="5"/>
-      <c r="B226" s="10"/>
+      <c r="B226" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="D226" s="10"/>
       <c r="E226" s="10"/>
       <c r="F226" s="10"/>
@@ -15571,10 +15606,7 @@
     </row>
     <row r="227" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A227" s="5"/>
-      <c r="B227" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C227" s="10"/>
+      <c r="B227" s="10"/>
       <c r="D227" s="10"/>
       <c r="E227" s="10"/>
       <c r="F227" s="10"/>
@@ -15636,7 +15668,9 @@
     </row>
     <row r="228" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A228" s="5"/>
-      <c r="B228" s="10"/>
+      <c r="B228" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="C228" s="10"/>
       <c r="D228" s="10"/>
       <c r="E228" s="10"/>
@@ -17650,9 +17684,9 @@
       <c r="BH259" s="10"/>
       <c r="BI259" s="6"/>
     </row>
-    <row r="260" spans="1:61" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A260" s="5"/>
-      <c r="B260" s="12"/>
+      <c r="B260" s="10"/>
       <c r="C260" s="10"/>
       <c r="D260" s="10"/>
       <c r="E260" s="10"/>
@@ -17713,205 +17747,203 @@
       <c r="BH260" s="10"/>
       <c r="BI260" s="6"/>
     </row>
-    <row r="261" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A261" s="7"/>
-      <c r="B261" s="8"/>
-      <c r="C261" s="8"/>
-      <c r="D261" s="8"/>
-      <c r="E261" s="8"/>
-      <c r="F261" s="8"/>
-      <c r="G261" s="8"/>
-      <c r="H261" s="8"/>
-      <c r="I261" s="8"/>
-      <c r="J261" s="8"/>
-      <c r="K261" s="8"/>
-      <c r="L261" s="8"/>
-      <c r="M261" s="8"/>
-      <c r="N261" s="8"/>
-      <c r="O261" s="8"/>
-      <c r="P261" s="8"/>
-      <c r="Q261" s="8"/>
-      <c r="R261" s="8"/>
-      <c r="S261" s="8"/>
-      <c r="T261" s="8"/>
-      <c r="U261" s="8"/>
-      <c r="V261" s="8"/>
-      <c r="W261" s="8"/>
-      <c r="X261" s="8"/>
-      <c r="Y261" s="8"/>
-      <c r="Z261" s="8"/>
-      <c r="AA261" s="8"/>
-      <c r="AB261" s="8"/>
-      <c r="AC261" s="8"/>
-      <c r="AD261" s="8"/>
-      <c r="AE261" s="8"/>
-      <c r="AF261" s="8"/>
-      <c r="AG261" s="8"/>
-      <c r="AH261" s="8"/>
-      <c r="AI261" s="8"/>
-      <c r="AJ261" s="8"/>
-      <c r="AK261" s="8"/>
-      <c r="AL261" s="8"/>
-      <c r="AM261" s="8"/>
-      <c r="AN261" s="8"/>
-      <c r="AO261" s="8"/>
-      <c r="AP261" s="8"/>
-      <c r="AQ261" s="8"/>
-      <c r="AR261" s="8"/>
-      <c r="AS261" s="8"/>
-      <c r="AT261" s="8"/>
-      <c r="AU261" s="8"/>
-      <c r="AV261" s="8"/>
-      <c r="AW261" s="8"/>
-      <c r="AX261" s="8"/>
-      <c r="AY261" s="8"/>
-      <c r="AZ261" s="8"/>
-      <c r="BA261" s="8"/>
-      <c r="BB261" s="8"/>
-      <c r="BC261" s="8"/>
-      <c r="BD261" s="8"/>
-      <c r="BE261" s="8"/>
-      <c r="BF261" s="8"/>
-      <c r="BG261" s="8"/>
-      <c r="BH261" s="8"/>
-      <c r="BI261" s="9"/>
-    </row>
-    <row r="264" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A264" s="1" t="s">
+    <row r="261" spans="1:61" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A261" s="5"/>
+      <c r="B261" s="12"/>
+      <c r="C261" s="10"/>
+      <c r="D261" s="10"/>
+      <c r="E261" s="10"/>
+      <c r="F261" s="10"/>
+      <c r="G261" s="10"/>
+      <c r="H261" s="10"/>
+      <c r="I261" s="10"/>
+      <c r="J261" s="10"/>
+      <c r="K261" s="10"/>
+      <c r="L261" s="10"/>
+      <c r="M261" s="10"/>
+      <c r="N261" s="10"/>
+      <c r="O261" s="10"/>
+      <c r="P261" s="10"/>
+      <c r="Q261" s="10"/>
+      <c r="R261" s="10"/>
+      <c r="S261" s="10"/>
+      <c r="T261" s="10"/>
+      <c r="U261" s="10"/>
+      <c r="V261" s="10"/>
+      <c r="W261" s="10"/>
+      <c r="X261" s="10"/>
+      <c r="Y261" s="10"/>
+      <c r="Z261" s="10"/>
+      <c r="AA261" s="10"/>
+      <c r="AB261" s="10"/>
+      <c r="AC261" s="10"/>
+      <c r="AD261" s="10"/>
+      <c r="AE261" s="10"/>
+      <c r="AF261" s="10"/>
+      <c r="AG261" s="10"/>
+      <c r="AH261" s="10"/>
+      <c r="AI261" s="10"/>
+      <c r="AJ261" s="10"/>
+      <c r="AK261" s="10"/>
+      <c r="AL261" s="10"/>
+      <c r="AM261" s="10"/>
+      <c r="AN261" s="10"/>
+      <c r="AO261" s="10"/>
+      <c r="AP261" s="10"/>
+      <c r="AQ261" s="10"/>
+      <c r="AR261" s="10"/>
+      <c r="AS261" s="10"/>
+      <c r="AT261" s="10"/>
+      <c r="AU261" s="10"/>
+      <c r="AV261" s="10"/>
+      <c r="AW261" s="10"/>
+      <c r="AX261" s="10"/>
+      <c r="AY261" s="10"/>
+      <c r="AZ261" s="10"/>
+      <c r="BA261" s="10"/>
+      <c r="BB261" s="10"/>
+      <c r="BC261" s="10"/>
+      <c r="BD261" s="10"/>
+      <c r="BE261" s="10"/>
+      <c r="BF261" s="10"/>
+      <c r="BG261" s="10"/>
+      <c r="BH261" s="10"/>
+      <c r="BI261" s="6"/>
+    </row>
+    <row r="262" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A262" s="7"/>
+      <c r="B262" s="8"/>
+      <c r="C262" s="8"/>
+      <c r="D262" s="8"/>
+      <c r="E262" s="8"/>
+      <c r="F262" s="8"/>
+      <c r="G262" s="8"/>
+      <c r="H262" s="8"/>
+      <c r="I262" s="8"/>
+      <c r="J262" s="8"/>
+      <c r="K262" s="8"/>
+      <c r="L262" s="8"/>
+      <c r="M262" s="8"/>
+      <c r="N262" s="8"/>
+      <c r="O262" s="8"/>
+      <c r="P262" s="8"/>
+      <c r="Q262" s="8"/>
+      <c r="R262" s="8"/>
+      <c r="S262" s="8"/>
+      <c r="T262" s="8"/>
+      <c r="U262" s="8"/>
+      <c r="V262" s="8"/>
+      <c r="W262" s="8"/>
+      <c r="X262" s="8"/>
+      <c r="Y262" s="8"/>
+      <c r="Z262" s="8"/>
+      <c r="AA262" s="8"/>
+      <c r="AB262" s="8"/>
+      <c r="AC262" s="8"/>
+      <c r="AD262" s="8"/>
+      <c r="AE262" s="8"/>
+      <c r="AF262" s="8"/>
+      <c r="AG262" s="8"/>
+      <c r="AH262" s="8"/>
+      <c r="AI262" s="8"/>
+      <c r="AJ262" s="8"/>
+      <c r="AK262" s="8"/>
+      <c r="AL262" s="8"/>
+      <c r="AM262" s="8"/>
+      <c r="AN262" s="8"/>
+      <c r="AO262" s="8"/>
+      <c r="AP262" s="8"/>
+      <c r="AQ262" s="8"/>
+      <c r="AR262" s="8"/>
+      <c r="AS262" s="8"/>
+      <c r="AT262" s="8"/>
+      <c r="AU262" s="8"/>
+      <c r="AV262" s="8"/>
+      <c r="AW262" s="8"/>
+      <c r="AX262" s="8"/>
+      <c r="AY262" s="8"/>
+      <c r="AZ262" s="8"/>
+      <c r="BA262" s="8"/>
+      <c r="BB262" s="8"/>
+      <c r="BC262" s="8"/>
+      <c r="BD262" s="8"/>
+      <c r="BE262" s="8"/>
+      <c r="BF262" s="8"/>
+      <c r="BG262" s="8"/>
+      <c r="BH262" s="8"/>
+      <c r="BI262" s="9"/>
+    </row>
+    <row r="265" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A265" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="265" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A265" s="2"/>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
-      <c r="F265" s="3"/>
-      <c r="G265" s="3"/>
-      <c r="H265" s="3"/>
-      <c r="I265" s="3"/>
-      <c r="J265" s="3"/>
-      <c r="K265" s="3"/>
-      <c r="L265" s="3"/>
-      <c r="M265" s="3"/>
-      <c r="N265" s="3"/>
-      <c r="O265" s="3"/>
-      <c r="P265" s="3"/>
-      <c r="Q265" s="3"/>
-      <c r="R265" s="3"/>
-      <c r="S265" s="3"/>
-      <c r="T265" s="3"/>
-      <c r="U265" s="3"/>
-      <c r="V265" s="3"/>
-      <c r="W265" s="3"/>
-      <c r="X265" s="3"/>
-      <c r="Y265" s="3"/>
-      <c r="Z265" s="3"/>
-      <c r="AA265" s="3"/>
-      <c r="AB265" s="3"/>
-      <c r="AC265" s="3"/>
-      <c r="AD265" s="3"/>
-      <c r="AE265" s="3"/>
-      <c r="AF265" s="3"/>
-      <c r="AG265" s="3"/>
-      <c r="AH265" s="3"/>
-      <c r="AI265" s="3"/>
-      <c r="AJ265" s="3"/>
-      <c r="AK265" s="3"/>
-      <c r="AL265" s="3"/>
-      <c r="AM265" s="3"/>
-      <c r="AN265" s="3"/>
-      <c r="AO265" s="3"/>
-      <c r="AP265" s="3"/>
-      <c r="AQ265" s="3"/>
-      <c r="AR265" s="3"/>
-      <c r="AS265" s="3"/>
-      <c r="AT265" s="3"/>
-      <c r="AU265" s="3"/>
-      <c r="AV265" s="3"/>
-      <c r="AW265" s="3"/>
-      <c r="AX265" s="3"/>
-      <c r="AY265" s="3"/>
-      <c r="AZ265" s="3"/>
-      <c r="BA265" s="3"/>
-      <c r="BB265" s="3"/>
-      <c r="BC265" s="3"/>
-      <c r="BD265" s="3"/>
-      <c r="BE265" s="3"/>
-      <c r="BF265" s="3"/>
-      <c r="BG265" s="3"/>
-      <c r="BH265" s="3"/>
-      <c r="BI265" s="4"/>
-    </row>
     <row r="266" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A266" s="14" t="s">
+      <c r="A266" s="2"/>
+      <c r="B266" s="3"/>
+      <c r="C266" s="3"/>
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="G266" s="3"/>
+      <c r="H266" s="3"/>
+      <c r="I266" s="3"/>
+      <c r="J266" s="3"/>
+      <c r="K266" s="3"/>
+      <c r="L266" s="3"/>
+      <c r="M266" s="3"/>
+      <c r="N266" s="3"/>
+      <c r="O266" s="3"/>
+      <c r="P266" s="3"/>
+      <c r="Q266" s="3"/>
+      <c r="R266" s="3"/>
+      <c r="S266" s="3"/>
+      <c r="T266" s="3"/>
+      <c r="U266" s="3"/>
+      <c r="V266" s="3"/>
+      <c r="W266" s="3"/>
+      <c r="X266" s="3"/>
+      <c r="Y266" s="3"/>
+      <c r="Z266" s="3"/>
+      <c r="AA266" s="3"/>
+      <c r="AB266" s="3"/>
+      <c r="AC266" s="3"/>
+      <c r="AD266" s="3"/>
+      <c r="AE266" s="3"/>
+      <c r="AF266" s="3"/>
+      <c r="AG266" s="3"/>
+      <c r="AH266" s="3"/>
+      <c r="AI266" s="3"/>
+      <c r="AJ266" s="3"/>
+      <c r="AK266" s="3"/>
+      <c r="AL266" s="3"/>
+      <c r="AM266" s="3"/>
+      <c r="AN266" s="3"/>
+      <c r="AO266" s="3"/>
+      <c r="AP266" s="3"/>
+      <c r="AQ266" s="3"/>
+      <c r="AR266" s="3"/>
+      <c r="AS266" s="3"/>
+      <c r="AT266" s="3"/>
+      <c r="AU266" s="3"/>
+      <c r="AV266" s="3"/>
+      <c r="AW266" s="3"/>
+      <c r="AX266" s="3"/>
+      <c r="AY266" s="3"/>
+      <c r="AZ266" s="3"/>
+      <c r="BA266" s="3"/>
+      <c r="BB266" s="3"/>
+      <c r="BC266" s="3"/>
+      <c r="BD266" s="3"/>
+      <c r="BE266" s="3"/>
+      <c r="BF266" s="3"/>
+      <c r="BG266" s="3"/>
+      <c r="BH266" s="3"/>
+      <c r="BI266" s="4"/>
+    </row>
+    <row r="267" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A267" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="B266" s="10"/>
-      <c r="C266" s="10"/>
-      <c r="D266" s="10"/>
-      <c r="E266" s="10"/>
-      <c r="F266" s="10"/>
-      <c r="G266" s="10"/>
-      <c r="H266" s="10"/>
-      <c r="I266" s="10"/>
-      <c r="J266" s="10"/>
-      <c r="K266" s="10"/>
-      <c r="L266" s="10"/>
-      <c r="M266" s="10"/>
-      <c r="N266" s="10"/>
-      <c r="O266" s="10"/>
-      <c r="P266" s="10"/>
-      <c r="Q266" s="10"/>
-      <c r="R266" s="10"/>
-      <c r="S266" s="10"/>
-      <c r="T266" s="10"/>
-      <c r="U266" s="10"/>
-      <c r="V266" s="10"/>
-      <c r="W266" s="10"/>
-      <c r="X266" s="10"/>
-      <c r="Y266" s="10"/>
-      <c r="Z266" s="10"/>
-      <c r="AA266" s="10"/>
-      <c r="AB266" s="10"/>
-      <c r="AC266" s="10"/>
-      <c r="AD266" s="10"/>
-      <c r="AE266" s="10"/>
-      <c r="AF266" s="10"/>
-      <c r="AG266" s="10"/>
-      <c r="AH266" s="10"/>
-      <c r="AI266" s="10"/>
-      <c r="AJ266" s="10"/>
-      <c r="AK266" s="10"/>
-      <c r="AL266" s="10"/>
-      <c r="AM266" s="10"/>
-      <c r="AN266" s="10"/>
-      <c r="AO266" s="10"/>
-      <c r="AP266" s="10"/>
-      <c r="AQ266" s="10"/>
-      <c r="AR266" s="10"/>
-      <c r="AS266" s="10"/>
-      <c r="AT266" s="10"/>
-      <c r="AU266" s="10"/>
-      <c r="AV266" s="10"/>
-      <c r="AW266" s="10"/>
-      <c r="AX266" s="10"/>
-      <c r="AY266" s="10"/>
-      <c r="AZ266" s="10"/>
-      <c r="BA266" s="10"/>
-      <c r="BB266" s="10"/>
-      <c r="BC266" s="10"/>
-      <c r="BD266" s="10"/>
-      <c r="BE266" s="10"/>
-      <c r="BF266" s="10"/>
-      <c r="BG266" s="10"/>
-      <c r="BH266" s="10"/>
-      <c r="BI266" s="6"/>
-    </row>
-    <row r="267" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A267" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="B267" s="10"/>
       <c r="C267" s="10"/>
@@ -17975,7 +18007,9 @@
       <c r="BI267" s="6"/>
     </row>
     <row r="268" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A268" s="5"/>
+      <c r="A268" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="B268" s="10"/>
       <c r="C268" s="10"/>
       <c r="D268" s="10"/>
@@ -18038,9 +18072,7 @@
       <c r="BI268" s="6"/>
     </row>
     <row r="269" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A269" s="13" t="s">
-        <v>61</v>
-      </c>
+      <c r="A269" s="5"/>
       <c r="B269" s="10"/>
       <c r="C269" s="10"/>
       <c r="D269" s="10"/>
@@ -18103,10 +18135,10 @@
       <c r="BI269" s="6"/>
     </row>
     <row r="270" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A270" s="5"/>
-      <c r="B270" s="10" t="s">
-        <v>60</v>
+      <c r="A270" s="13" t="s">
+        <v>61</v>
       </c>
+      <c r="B270" s="10"/>
       <c r="C270" s="10"/>
       <c r="D270" s="10"/>
       <c r="E270" s="10"/>
@@ -18169,33 +18201,33 @@
     </row>
     <row r="271" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A271" s="5"/>
-      <c r="B271" s="28" t="s">
-        <v>62</v>
+      <c r="B271" s="10" t="s">
+        <v>60</v>
       </c>
-      <c r="C271" s="20"/>
-      <c r="D271" s="20"/>
-      <c r="E271" s="20"/>
-      <c r="F271" s="20"/>
-      <c r="G271" s="20"/>
-      <c r="H271" s="20"/>
-      <c r="I271" s="20"/>
-      <c r="J271" s="20"/>
-      <c r="K271" s="20"/>
-      <c r="L271" s="20"/>
-      <c r="M271" s="20"/>
-      <c r="N271" s="20"/>
-      <c r="O271" s="20"/>
-      <c r="P271" s="20"/>
-      <c r="Q271" s="20"/>
-      <c r="R271" s="20"/>
-      <c r="S271" s="20"/>
-      <c r="T271" s="20"/>
-      <c r="U271" s="20"/>
-      <c r="V271" s="20"/>
-      <c r="W271" s="20"/>
-      <c r="X271" s="20"/>
-      <c r="Y271" s="20"/>
-      <c r="Z271" s="21"/>
+      <c r="C271" s="10"/>
+      <c r="D271" s="10"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="10"/>
+      <c r="G271" s="10"/>
+      <c r="H271" s="10"/>
+      <c r="I271" s="10"/>
+      <c r="J271" s="10"/>
+      <c r="K271" s="10"/>
+      <c r="L271" s="10"/>
+      <c r="M271" s="10"/>
+      <c r="N271" s="10"/>
+      <c r="O271" s="10"/>
+      <c r="P271" s="10"/>
+      <c r="Q271" s="10"/>
+      <c r="R271" s="10"/>
+      <c r="S271" s="10"/>
+      <c r="T271" s="10"/>
+      <c r="U271" s="10"/>
+      <c r="V271" s="10"/>
+      <c r="W271" s="10"/>
+      <c r="X271" s="10"/>
+      <c r="Y271" s="10"/>
+      <c r="Z271" s="10"/>
       <c r="AA271" s="10"/>
       <c r="AB271" s="10"/>
       <c r="AC271" s="10"/>
@@ -18234,31 +18266,33 @@
     </row>
     <row r="272" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A272" s="5"/>
-      <c r="B272" s="22"/>
-      <c r="C272" s="23"/>
-      <c r="D272" s="23"/>
-      <c r="E272" s="23"/>
-      <c r="F272" s="23"/>
-      <c r="G272" s="23"/>
-      <c r="H272" s="23"/>
-      <c r="I272" s="23"/>
-      <c r="J272" s="23"/>
-      <c r="K272" s="23"/>
-      <c r="L272" s="23"/>
-      <c r="M272" s="23"/>
-      <c r="N272" s="23"/>
-      <c r="O272" s="23"/>
-      <c r="P272" s="23"/>
-      <c r="Q272" s="23"/>
-      <c r="R272" s="23"/>
-      <c r="S272" s="23"/>
-      <c r="T272" s="23"/>
-      <c r="U272" s="23"/>
-      <c r="V272" s="23"/>
-      <c r="W272" s="23"/>
-      <c r="X272" s="23"/>
-      <c r="Y272" s="23"/>
-      <c r="Z272" s="24"/>
+      <c r="B272" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C272" s="21"/>
+      <c r="D272" s="21"/>
+      <c r="E272" s="21"/>
+      <c r="F272" s="21"/>
+      <c r="G272" s="21"/>
+      <c r="H272" s="21"/>
+      <c r="I272" s="21"/>
+      <c r="J272" s="21"/>
+      <c r="K272" s="21"/>
+      <c r="L272" s="21"/>
+      <c r="M272" s="21"/>
+      <c r="N272" s="21"/>
+      <c r="O272" s="21"/>
+      <c r="P272" s="21"/>
+      <c r="Q272" s="21"/>
+      <c r="R272" s="21"/>
+      <c r="S272" s="21"/>
+      <c r="T272" s="21"/>
+      <c r="U272" s="21"/>
+      <c r="V272" s="21"/>
+      <c r="W272" s="21"/>
+      <c r="X272" s="21"/>
+      <c r="Y272" s="21"/>
+      <c r="Z272" s="22"/>
       <c r="AA272" s="10"/>
       <c r="AB272" s="10"/>
       <c r="AC272" s="10"/>
@@ -18297,31 +18331,31 @@
     </row>
     <row r="273" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A273" s="5"/>
-      <c r="B273" s="22"/>
-      <c r="C273" s="23"/>
-      <c r="D273" s="23"/>
-      <c r="E273" s="23"/>
-      <c r="F273" s="23"/>
-      <c r="G273" s="23"/>
-      <c r="H273" s="23"/>
-      <c r="I273" s="23"/>
-      <c r="J273" s="23"/>
-      <c r="K273" s="23"/>
-      <c r="L273" s="23"/>
-      <c r="M273" s="23"/>
-      <c r="N273" s="23"/>
-      <c r="O273" s="23"/>
-      <c r="P273" s="23"/>
-      <c r="Q273" s="23"/>
-      <c r="R273" s="23"/>
-      <c r="S273" s="23"/>
-      <c r="T273" s="23"/>
-      <c r="U273" s="23"/>
-      <c r="V273" s="23"/>
-      <c r="W273" s="23"/>
-      <c r="X273" s="23"/>
-      <c r="Y273" s="23"/>
-      <c r="Z273" s="24"/>
+      <c r="B273" s="23"/>
+      <c r="C273" s="24"/>
+      <c r="D273" s="24"/>
+      <c r="E273" s="24"/>
+      <c r="F273" s="24"/>
+      <c r="G273" s="24"/>
+      <c r="H273" s="24"/>
+      <c r="I273" s="24"/>
+      <c r="J273" s="24"/>
+      <c r="K273" s="24"/>
+      <c r="L273" s="24"/>
+      <c r="M273" s="24"/>
+      <c r="N273" s="24"/>
+      <c r="O273" s="24"/>
+      <c r="P273" s="24"/>
+      <c r="Q273" s="24"/>
+      <c r="R273" s="24"/>
+      <c r="S273" s="24"/>
+      <c r="T273" s="24"/>
+      <c r="U273" s="24"/>
+      <c r="V273" s="24"/>
+      <c r="W273" s="24"/>
+      <c r="X273" s="24"/>
+      <c r="Y273" s="24"/>
+      <c r="Z273" s="25"/>
       <c r="AA273" s="10"/>
       <c r="AB273" s="10"/>
       <c r="AC273" s="10"/>
@@ -18360,31 +18394,31 @@
     </row>
     <row r="274" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A274" s="5"/>
-      <c r="B274" s="22"/>
-      <c r="C274" s="23"/>
-      <c r="D274" s="23"/>
-      <c r="E274" s="23"/>
-      <c r="F274" s="23"/>
-      <c r="G274" s="23"/>
-      <c r="H274" s="23"/>
-      <c r="I274" s="23"/>
-      <c r="J274" s="23"/>
-      <c r="K274" s="23"/>
-      <c r="L274" s="23"/>
-      <c r="M274" s="23"/>
-      <c r="N274" s="23"/>
-      <c r="O274" s="23"/>
-      <c r="P274" s="23"/>
-      <c r="Q274" s="23"/>
-      <c r="R274" s="23"/>
-      <c r="S274" s="23"/>
-      <c r="T274" s="23"/>
-      <c r="U274" s="23"/>
-      <c r="V274" s="23"/>
-      <c r="W274" s="23"/>
-      <c r="X274" s="23"/>
-      <c r="Y274" s="23"/>
-      <c r="Z274" s="24"/>
+      <c r="B274" s="23"/>
+      <c r="C274" s="24"/>
+      <c r="D274" s="24"/>
+      <c r="E274" s="24"/>
+      <c r="F274" s="24"/>
+      <c r="G274" s="24"/>
+      <c r="H274" s="24"/>
+      <c r="I274" s="24"/>
+      <c r="J274" s="24"/>
+      <c r="K274" s="24"/>
+      <c r="L274" s="24"/>
+      <c r="M274" s="24"/>
+      <c r="N274" s="24"/>
+      <c r="O274" s="24"/>
+      <c r="P274" s="24"/>
+      <c r="Q274" s="24"/>
+      <c r="R274" s="24"/>
+      <c r="S274" s="24"/>
+      <c r="T274" s="24"/>
+      <c r="U274" s="24"/>
+      <c r="V274" s="24"/>
+      <c r="W274" s="24"/>
+      <c r="X274" s="24"/>
+      <c r="Y274" s="24"/>
+      <c r="Z274" s="25"/>
       <c r="AA274" s="10"/>
       <c r="AB274" s="10"/>
       <c r="AC274" s="10"/>
@@ -18423,31 +18457,31 @@
     </row>
     <row r="275" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A275" s="5"/>
-      <c r="B275" s="22"/>
-      <c r="C275" s="23"/>
-      <c r="D275" s="23"/>
-      <c r="E275" s="23"/>
-      <c r="F275" s="23"/>
-      <c r="G275" s="23"/>
-      <c r="H275" s="23"/>
-      <c r="I275" s="23"/>
-      <c r="J275" s="23"/>
-      <c r="K275" s="23"/>
-      <c r="L275" s="23"/>
-      <c r="M275" s="23"/>
-      <c r="N275" s="23"/>
-      <c r="O275" s="23"/>
-      <c r="P275" s="23"/>
-      <c r="Q275" s="23"/>
-      <c r="R275" s="23"/>
-      <c r="S275" s="23"/>
-      <c r="T275" s="23"/>
-      <c r="U275" s="23"/>
-      <c r="V275" s="23"/>
-      <c r="W275" s="23"/>
-      <c r="X275" s="23"/>
-      <c r="Y275" s="23"/>
-      <c r="Z275" s="24"/>
+      <c r="B275" s="23"/>
+      <c r="C275" s="24"/>
+      <c r="D275" s="24"/>
+      <c r="E275" s="24"/>
+      <c r="F275" s="24"/>
+      <c r="G275" s="24"/>
+      <c r="H275" s="24"/>
+      <c r="I275" s="24"/>
+      <c r="J275" s="24"/>
+      <c r="K275" s="24"/>
+      <c r="L275" s="24"/>
+      <c r="M275" s="24"/>
+      <c r="N275" s="24"/>
+      <c r="O275" s="24"/>
+      <c r="P275" s="24"/>
+      <c r="Q275" s="24"/>
+      <c r="R275" s="24"/>
+      <c r="S275" s="24"/>
+      <c r="T275" s="24"/>
+      <c r="U275" s="24"/>
+      <c r="V275" s="24"/>
+      <c r="W275" s="24"/>
+      <c r="X275" s="24"/>
+      <c r="Y275" s="24"/>
+      <c r="Z275" s="25"/>
       <c r="AA275" s="10"/>
       <c r="AB275" s="10"/>
       <c r="AC275" s="10"/>
@@ -18486,31 +18520,31 @@
     </row>
     <row r="276" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A276" s="5"/>
-      <c r="B276" s="25"/>
-      <c r="C276" s="26"/>
-      <c r="D276" s="26"/>
-      <c r="E276" s="26"/>
-      <c r="F276" s="26"/>
-      <c r="G276" s="26"/>
-      <c r="H276" s="26"/>
-      <c r="I276" s="26"/>
-      <c r="J276" s="26"/>
-      <c r="K276" s="26"/>
-      <c r="L276" s="26"/>
-      <c r="M276" s="26"/>
-      <c r="N276" s="26"/>
-      <c r="O276" s="26"/>
-      <c r="P276" s="26"/>
-      <c r="Q276" s="26"/>
-      <c r="R276" s="26"/>
-      <c r="S276" s="26"/>
-      <c r="T276" s="26"/>
-      <c r="U276" s="26"/>
-      <c r="V276" s="26"/>
-      <c r="W276" s="26"/>
-      <c r="X276" s="26"/>
-      <c r="Y276" s="26"/>
-      <c r="Z276" s="27"/>
+      <c r="B276" s="23"/>
+      <c r="C276" s="24"/>
+      <c r="D276" s="24"/>
+      <c r="E276" s="24"/>
+      <c r="F276" s="24"/>
+      <c r="G276" s="24"/>
+      <c r="H276" s="24"/>
+      <c r="I276" s="24"/>
+      <c r="J276" s="24"/>
+      <c r="K276" s="24"/>
+      <c r="L276" s="24"/>
+      <c r="M276" s="24"/>
+      <c r="N276" s="24"/>
+      <c r="O276" s="24"/>
+      <c r="P276" s="24"/>
+      <c r="Q276" s="24"/>
+      <c r="R276" s="24"/>
+      <c r="S276" s="24"/>
+      <c r="T276" s="24"/>
+      <c r="U276" s="24"/>
+      <c r="V276" s="24"/>
+      <c r="W276" s="24"/>
+      <c r="X276" s="24"/>
+      <c r="Y276" s="24"/>
+      <c r="Z276" s="25"/>
       <c r="AA276" s="10"/>
       <c r="AB276" s="10"/>
       <c r="AC276" s="10"/>
@@ -18549,31 +18583,31 @@
     </row>
     <row r="277" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A277" s="5"/>
-      <c r="B277" s="10"/>
-      <c r="C277" s="10"/>
-      <c r="D277" s="10"/>
-      <c r="E277" s="10"/>
-      <c r="F277" s="10"/>
-      <c r="G277" s="10"/>
-      <c r="H277" s="10"/>
-      <c r="I277" s="10"/>
-      <c r="J277" s="10"/>
-      <c r="K277" s="10"/>
-      <c r="L277" s="10"/>
-      <c r="M277" s="10"/>
-      <c r="N277" s="10"/>
-      <c r="O277" s="10"/>
-      <c r="P277" s="10"/>
-      <c r="Q277" s="10"/>
-      <c r="R277" s="10"/>
-      <c r="S277" s="10"/>
-      <c r="T277" s="10"/>
-      <c r="U277" s="10"/>
-      <c r="V277" s="10"/>
-      <c r="W277" s="10"/>
-      <c r="X277" s="10"/>
-      <c r="Y277" s="10"/>
-      <c r="Z277" s="10"/>
+      <c r="B277" s="26"/>
+      <c r="C277" s="27"/>
+      <c r="D277" s="27"/>
+      <c r="E277" s="27"/>
+      <c r="F277" s="27"/>
+      <c r="G277" s="27"/>
+      <c r="H277" s="27"/>
+      <c r="I277" s="27"/>
+      <c r="J277" s="27"/>
+      <c r="K277" s="27"/>
+      <c r="L277" s="27"/>
+      <c r="M277" s="27"/>
+      <c r="N277" s="27"/>
+      <c r="O277" s="27"/>
+      <c r="P277" s="27"/>
+      <c r="Q277" s="27"/>
+      <c r="R277" s="27"/>
+      <c r="S277" s="27"/>
+      <c r="T277" s="27"/>
+      <c r="U277" s="27"/>
+      <c r="V277" s="27"/>
+      <c r="W277" s="27"/>
+      <c r="X277" s="27"/>
+      <c r="Y277" s="27"/>
+      <c r="Z277" s="28"/>
       <c r="AA277" s="10"/>
       <c r="AB277" s="10"/>
       <c r="AC277" s="10"/>
@@ -18611,9 +18645,7 @@
       <c r="BI277" s="6"/>
     </row>
     <row r="278" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A278" s="13" t="s">
-        <v>63</v>
-      </c>
+      <c r="A278" s="5"/>
       <c r="B278" s="10"/>
       <c r="C278" s="10"/>
       <c r="D278" s="10"/>
@@ -18676,10 +18708,10 @@
       <c r="BI278" s="6"/>
     </row>
     <row r="279" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A279" s="5"/>
-      <c r="B279" s="10" t="s">
-        <v>65</v>
+      <c r="A279" s="13" t="s">
+        <v>63</v>
       </c>
+      <c r="B279" s="10"/>
       <c r="C279" s="10"/>
       <c r="D279" s="10"/>
       <c r="E279" s="10"/>
@@ -18741,79 +18773,148 @@
       <c r="BI279" s="6"/>
     </row>
     <row r="280" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A280" s="7"/>
-      <c r="B280" s="8"/>
-      <c r="C280" s="8"/>
-      <c r="D280" s="8"/>
-      <c r="E280" s="8"/>
-      <c r="F280" s="8"/>
-      <c r="G280" s="8"/>
-      <c r="H280" s="8"/>
-      <c r="I280" s="8"/>
-      <c r="J280" s="8"/>
-      <c r="K280" s="8"/>
-      <c r="L280" s="8"/>
-      <c r="M280" s="8"/>
-      <c r="N280" s="8"/>
-      <c r="O280" s="8"/>
-      <c r="P280" s="8"/>
-      <c r="Q280" s="8"/>
-      <c r="R280" s="8"/>
-      <c r="S280" s="8"/>
-      <c r="T280" s="8"/>
-      <c r="U280" s="8"/>
-      <c r="V280" s="8"/>
-      <c r="W280" s="8"/>
-      <c r="X280" s="8"/>
-      <c r="Y280" s="8"/>
-      <c r="Z280" s="8"/>
-      <c r="AA280" s="8"/>
-      <c r="AB280" s="8"/>
-      <c r="AC280" s="8"/>
-      <c r="AD280" s="8"/>
-      <c r="AE280" s="8"/>
-      <c r="AF280" s="8"/>
-      <c r="AG280" s="8"/>
-      <c r="AH280" s="8"/>
-      <c r="AI280" s="8"/>
-      <c r="AJ280" s="8"/>
-      <c r="AK280" s="8"/>
-      <c r="AL280" s="8"/>
-      <c r="AM280" s="8"/>
-      <c r="AN280" s="8"/>
-      <c r="AO280" s="8"/>
-      <c r="AP280" s="8"/>
-      <c r="AQ280" s="8"/>
-      <c r="AR280" s="8"/>
-      <c r="AS280" s="8"/>
-      <c r="AT280" s="8"/>
-      <c r="AU280" s="8"/>
-      <c r="AV280" s="8"/>
-      <c r="AW280" s="8"/>
-      <c r="AX280" s="8"/>
-      <c r="AY280" s="8"/>
-      <c r="AZ280" s="8"/>
-      <c r="BA280" s="8"/>
-      <c r="BB280" s="8"/>
-      <c r="BC280" s="8"/>
-      <c r="BD280" s="8"/>
-      <c r="BE280" s="8"/>
-      <c r="BF280" s="8"/>
-      <c r="BG280" s="8"/>
-      <c r="BH280" s="8"/>
-      <c r="BI280" s="9"/>
-    </row>
-    <row r="282" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A282" s="19" t="s">
+      <c r="A280" s="5"/>
+      <c r="B280" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C280" s="10"/>
+      <c r="D280" s="10"/>
+      <c r="E280" s="10"/>
+      <c r="F280" s="10"/>
+      <c r="G280" s="10"/>
+      <c r="H280" s="10"/>
+      <c r="I280" s="10"/>
+      <c r="J280" s="10"/>
+      <c r="K280" s="10"/>
+      <c r="L280" s="10"/>
+      <c r="M280" s="10"/>
+      <c r="N280" s="10"/>
+      <c r="O280" s="10"/>
+      <c r="P280" s="10"/>
+      <c r="Q280" s="10"/>
+      <c r="R280" s="10"/>
+      <c r="S280" s="10"/>
+      <c r="T280" s="10"/>
+      <c r="U280" s="10"/>
+      <c r="V280" s="10"/>
+      <c r="W280" s="10"/>
+      <c r="X280" s="10"/>
+      <c r="Y280" s="10"/>
+      <c r="Z280" s="10"/>
+      <c r="AA280" s="10"/>
+      <c r="AB280" s="10"/>
+      <c r="AC280" s="10"/>
+      <c r="AD280" s="10"/>
+      <c r="AE280" s="10"/>
+      <c r="AF280" s="10"/>
+      <c r="AG280" s="10"/>
+      <c r="AH280" s="10"/>
+      <c r="AI280" s="10"/>
+      <c r="AJ280" s="10"/>
+      <c r="AK280" s="10"/>
+      <c r="AL280" s="10"/>
+      <c r="AM280" s="10"/>
+      <c r="AN280" s="10"/>
+      <c r="AO280" s="10"/>
+      <c r="AP280" s="10"/>
+      <c r="AQ280" s="10"/>
+      <c r="AR280" s="10"/>
+      <c r="AS280" s="10"/>
+      <c r="AT280" s="10"/>
+      <c r="AU280" s="10"/>
+      <c r="AV280" s="10"/>
+      <c r="AW280" s="10"/>
+      <c r="AX280" s="10"/>
+      <c r="AY280" s="10"/>
+      <c r="AZ280" s="10"/>
+      <c r="BA280" s="10"/>
+      <c r="BB280" s="10"/>
+      <c r="BC280" s="10"/>
+      <c r="BD280" s="10"/>
+      <c r="BE280" s="10"/>
+      <c r="BF280" s="10"/>
+      <c r="BG280" s="10"/>
+      <c r="BH280" s="10"/>
+      <c r="BI280" s="6"/>
+    </row>
+    <row r="281" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A281" s="7"/>
+      <c r="B281" s="8"/>
+      <c r="C281" s="8"/>
+      <c r="D281" s="8"/>
+      <c r="E281" s="8"/>
+      <c r="F281" s="8"/>
+      <c r="G281" s="8"/>
+      <c r="H281" s="8"/>
+      <c r="I281" s="8"/>
+      <c r="J281" s="8"/>
+      <c r="K281" s="8"/>
+      <c r="L281" s="8"/>
+      <c r="M281" s="8"/>
+      <c r="N281" s="8"/>
+      <c r="O281" s="8"/>
+      <c r="P281" s="8"/>
+      <c r="Q281" s="8"/>
+      <c r="R281" s="8"/>
+      <c r="S281" s="8"/>
+      <c r="T281" s="8"/>
+      <c r="U281" s="8"/>
+      <c r="V281" s="8"/>
+      <c r="W281" s="8"/>
+      <c r="X281" s="8"/>
+      <c r="Y281" s="8"/>
+      <c r="Z281" s="8"/>
+      <c r="AA281" s="8"/>
+      <c r="AB281" s="8"/>
+      <c r="AC281" s="8"/>
+      <c r="AD281" s="8"/>
+      <c r="AE281" s="8"/>
+      <c r="AF281" s="8"/>
+      <c r="AG281" s="8"/>
+      <c r="AH281" s="8"/>
+      <c r="AI281" s="8"/>
+      <c r="AJ281" s="8"/>
+      <c r="AK281" s="8"/>
+      <c r="AL281" s="8"/>
+      <c r="AM281" s="8"/>
+      <c r="AN281" s="8"/>
+      <c r="AO281" s="8"/>
+      <c r="AP281" s="8"/>
+      <c r="AQ281" s="8"/>
+      <c r="AR281" s="8"/>
+      <c r="AS281" s="8"/>
+      <c r="AT281" s="8"/>
+      <c r="AU281" s="8"/>
+      <c r="AV281" s="8"/>
+      <c r="AW281" s="8"/>
+      <c r="AX281" s="8"/>
+      <c r="AY281" s="8"/>
+      <c r="AZ281" s="8"/>
+      <c r="BA281" s="8"/>
+      <c r="BB281" s="8"/>
+      <c r="BC281" s="8"/>
+      <c r="BD281" s="8"/>
+      <c r="BE281" s="8"/>
+      <c r="BF281" s="8"/>
+      <c r="BG281" s="8"/>
+      <c r="BH281" s="8"/>
+      <c r="BI281" s="9"/>
+    </row>
+    <row r="283" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A283" s="19" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B271:Z276"/>
+    <mergeCell ref="B272:Z277"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1" xr:uid="{7B359775-C0B1-4FB1-91DE-009029B9687C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>